--- a/manuscript/v2.0/Table3_BUSCO.xlsx
+++ b/manuscript/v2.0/Table3_BUSCO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Projects\Dresequencing\Dreseq_github\manuscript\firstDraft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\corrinne\D_Cottons_USDA\manuscript\v2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>Species</t>
   </si>
@@ -77,9 +77,6 @@
     <t>D3K-56</t>
   </si>
   <si>
-    <t>G. turnerii</t>
-  </si>
-  <si>
     <t>D10-7</t>
   </si>
   <si>
@@ -162,6 +159,12 @@
   </si>
   <si>
     <t>* assembly not improved with reference-based scaffolder</t>
+  </si>
+  <si>
+    <t>G. turneri</t>
+  </si>
+  <si>
+    <t>Table 3: BUSCOs recovered for each Chromosomer-improved assembly passing quality statistics (see methods).</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,514 +587,519 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="F2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="9">
-        <v>30475</v>
-      </c>
-      <c r="E2" s="9">
-        <v>1339</v>
-      </c>
-      <c r="F2" s="10">
-        <f>E2/1440</f>
-        <v>0.92986111111111114</v>
-      </c>
-      <c r="G2" s="6">
-        <v>27</v>
-      </c>
-      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3" s="9">
-        <v>28845</v>
+        <v>30475</v>
       </c>
       <c r="E3" s="9">
-        <v>1124</v>
+        <v>1339</v>
       </c>
       <c r="F3" s="10">
-        <f>E3/1440</f>
-        <v>0.78055555555555556</v>
+        <f t="shared" ref="F3:F21" si="0">E3/1440</f>
+        <v>0.92986111111111114</v>
       </c>
       <c r="G3" s="6">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D4" s="9">
-        <v>36068</v>
+        <v>28845</v>
       </c>
       <c r="E4" s="9">
-        <v>1294</v>
+        <v>1124</v>
       </c>
       <c r="F4" s="10">
-        <f>E4/1440</f>
-        <v>0.89861111111111114</v>
+        <f t="shared" si="0"/>
+        <v>0.78055555555555556</v>
       </c>
       <c r="G4" s="6">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" s="9">
-        <v>45244</v>
+        <v>36068</v>
       </c>
       <c r="E5" s="9">
-        <v>1366</v>
+        <v>1294</v>
       </c>
       <c r="F5" s="10">
-        <f>E5/1440</f>
-        <v>0.94861111111111107</v>
+        <f t="shared" si="0"/>
+        <v>0.89861111111111114</v>
       </c>
       <c r="G5" s="6">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D6" s="9">
-        <v>10872</v>
+        <v>45244</v>
       </c>
       <c r="E6" s="9">
-        <v>1201</v>
+        <v>1366</v>
       </c>
       <c r="F6" s="10">
-        <f>E6/1440</f>
-        <v>0.83402777777777781</v>
+        <f t="shared" si="0"/>
+        <v>0.94861111111111107</v>
       </c>
       <c r="G6" s="6">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D7" s="9">
-        <v>30401</v>
+        <v>10872</v>
       </c>
       <c r="E7" s="9">
-        <v>1137</v>
+        <v>1201</v>
       </c>
       <c r="F7" s="10">
-        <f>E7/1440</f>
-        <v>0.7895833333333333</v>
+        <f t="shared" si="0"/>
+        <v>0.83402777777777781</v>
       </c>
       <c r="G7" s="6">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D8" s="9">
-        <v>35142</v>
+        <v>30401</v>
       </c>
       <c r="E8" s="9">
-        <v>1285</v>
+        <v>1137</v>
       </c>
       <c r="F8" s="10">
-        <f>E8/1440</f>
-        <v>0.89236111111111116</v>
+        <f t="shared" si="0"/>
+        <v>0.7895833333333333</v>
       </c>
       <c r="G8" s="6">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D9" s="9">
-        <v>30646</v>
+        <v>35142</v>
       </c>
       <c r="E9" s="9">
-        <v>1162</v>
+        <v>1285</v>
       </c>
       <c r="F9" s="10">
-        <f>E9/1440</f>
-        <v>0.80694444444444446</v>
+        <f t="shared" si="0"/>
+        <v>0.89236111111111116</v>
       </c>
       <c r="G9" s="6">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D10" s="9">
-        <v>35572</v>
+        <v>30646</v>
       </c>
       <c r="E10" s="9">
-        <v>1310</v>
+        <v>1162</v>
       </c>
       <c r="F10" s="10">
-        <f>E10/1440</f>
-        <v>0.90972222222222221</v>
+        <f t="shared" si="0"/>
+        <v>0.80694444444444446</v>
       </c>
       <c r="G10" s="6">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D11" s="9">
-        <v>32375</v>
+        <v>35572</v>
       </c>
       <c r="E11" s="9">
-        <v>1321</v>
+        <v>1310</v>
       </c>
       <c r="F11" s="10">
-        <f>E11/1440</f>
-        <v>0.91736111111111107</v>
+        <f t="shared" si="0"/>
+        <v>0.90972222222222221</v>
       </c>
       <c r="G11" s="6">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D12" s="9">
-        <v>38314</v>
+        <v>32375</v>
       </c>
       <c r="E12" s="9">
-        <v>1348</v>
+        <v>1321</v>
       </c>
       <c r="F12" s="10">
-        <f>E12/1440</f>
-        <v>0.93611111111111112</v>
+        <f t="shared" si="0"/>
+        <v>0.91736111111111107</v>
       </c>
       <c r="G12" s="6">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D13" s="9">
-        <v>37553</v>
+        <v>38314</v>
       </c>
       <c r="E13" s="9">
-        <v>1342</v>
+        <v>1348</v>
       </c>
       <c r="F13" s="10">
-        <f>E13/1440</f>
-        <v>0.93194444444444446</v>
+        <f t="shared" si="0"/>
+        <v>0.93611111111111112</v>
       </c>
       <c r="G13" s="6">
-        <v>26</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D14" s="9">
-        <v>73326</v>
+        <v>37553</v>
       </c>
       <c r="E14" s="9">
-        <v>1321</v>
+        <v>1342</v>
       </c>
       <c r="F14" s="10">
-        <f>E14/1440</f>
-        <v>0.91736111111111107</v>
+        <f t="shared" si="0"/>
+        <v>0.93194444444444446</v>
       </c>
       <c r="G14" s="6">
-        <v>43</v>
-      </c>
-      <c r="H14" s="4"/>
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D15" s="9">
-        <v>20522</v>
+        <v>73326</v>
       </c>
       <c r="E15" s="9">
-        <v>1059</v>
+        <v>1321</v>
       </c>
       <c r="F15" s="10">
-        <f>E15/1440</f>
-        <v>0.73541666666666672</v>
+        <f t="shared" si="0"/>
+        <v>0.91736111111111107</v>
       </c>
       <c r="G15" s="6">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D16" s="9">
-        <v>38755</v>
+        <v>20522</v>
       </c>
       <c r="E16" s="9">
-        <v>1237</v>
+        <v>1059</v>
       </c>
       <c r="F16" s="10">
-        <f>E16/1440</f>
-        <v>0.85902777777777772</v>
+        <f t="shared" si="0"/>
+        <v>0.73541666666666672</v>
       </c>
       <c r="G16" s="6">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="9">
+        <v>38755</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1237</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="0"/>
+        <v>0.85902777777777772</v>
+      </c>
+      <c r="G17" s="6">
         <v>41</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="9">
-        <v>37410</v>
-      </c>
-      <c r="E17" s="9">
-        <v>1287</v>
-      </c>
-      <c r="F17" s="10">
-        <f>E17/1440</f>
-        <v>0.89375000000000004</v>
-      </c>
-      <c r="G17" s="6">
-        <v>54</v>
       </c>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D18" s="9">
-        <v>37444</v>
+        <v>37410</v>
       </c>
       <c r="E18" s="9">
-        <v>1332</v>
+        <v>1287</v>
       </c>
       <c r="F18" s="10">
-        <f>E18/1440</f>
-        <v>0.92500000000000004</v>
+        <f t="shared" si="0"/>
+        <v>0.89375000000000004</v>
       </c>
       <c r="G18" s="6">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D19" s="9">
-        <v>26492</v>
+        <v>37444</v>
       </c>
       <c r="E19" s="9">
-        <v>1133</v>
+        <v>1332</v>
       </c>
       <c r="F19" s="10">
-        <f>E19/1440</f>
-        <v>0.78680555555555554</v>
+        <f t="shared" si="0"/>
+        <v>0.92500000000000004</v>
       </c>
       <c r="G19" s="6">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="9">
+        <v>26492</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1133</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="0"/>
+        <v>0.78680555555555554</v>
+      </c>
+      <c r="G20" s="6">
+        <v>41</v>
+      </c>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D21" s="9">
         <v>23996</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E21" s="9">
         <v>1186</v>
       </c>
-      <c r="F20" s="10">
-        <f>E20/1440</f>
+      <c r="F21" s="10">
+        <f t="shared" si="0"/>
         <v>0.82361111111111107</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G21" s="6">
         <v>63</v>
       </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
